--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavya.mothukuri/work_repos/ironman-qa-repo/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="28455" windowHeight="13005"/>
+    <workbookView xWindow="31200" yWindow="2360" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="kudo" sheetId="1" r:id="rId1"/>
+    <sheet name="complain" sheetId="2" r:id="rId2"/>
+    <sheet name="delete" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +82,6 @@
     <t>input</t>
   </si>
   <si>
-    <t xml:space="preserve">20170323011952 </t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/div/md-content/md-virtual-repeat-container/div/div[2]/md-list-item[1]/div/button</t>
   </si>
   <si>
@@ -148,13 +158,73 @@
   </si>
   <si>
     <t>escape</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>//md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>Click add icon</t>
+  </si>
+  <si>
+    <t>Add kudo</t>
+  </si>
+  <si>
+    <t>Add details</t>
+  </si>
+  <si>
+    <t>contact status</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
+    <t>NO REMARKS</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/div/md-content/md-content/md-content[1]/md-fab-speed-dial/md-fab-actions/div[2]/button</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-fab-speed-dial/md-fab-trigger</t>
+  </si>
+  <si>
+    <t>//div[@id='widget']/div/div/div/div/p/span</t>
+  </si>
+  <si>
+    <t>//md-radio-button/div/div</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/md-content/form/md-input-container[2]/textarea</t>
+  </si>
+  <si>
+    <t>//div[3]/md-select-menu/md-content/md-option[3]/div</t>
+  </si>
+  <si>
+    <t>//md-toolbar[2]/button[2]</t>
+  </si>
+  <si>
+    <t>//md-input-container[4]/md-select</t>
+  </si>
+  <si>
+    <t>//md-option[2]/div[2]</t>
+  </si>
+  <si>
+    <t>//md-autocomplete-parent-scope/span</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +283,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,12 +334,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -291,14 +366,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -325,6 +401,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,27 +577,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="3"/>
-    <col min="2" max="2" width="50.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="4"/>
-    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="35.5703125" style="3"/>
+    <col min="1" max="1" width="35.5" style="3"/>
+    <col min="2" max="2" width="50.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="4"/>
+    <col min="5" max="5" width="9.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="35.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -563,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1">
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -583,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -603,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1">
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -614,15 +691,21 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -637,15 +720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1">
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -657,12 +740,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1">
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -677,9 +760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1">
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -694,9 +780,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1">
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -711,26 +800,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1">
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -745,75 +834,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
+    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1">
-      <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -824,12 +920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1">
+    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
@@ -841,49 +937,6 @@
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -894,24 +947,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2360" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="kudo" sheetId="1" r:id="rId1"/>
-    <sheet name="complain" sheetId="2" r:id="rId2"/>
+    <sheet name="complain" sheetId="2" r:id="rId1"/>
+    <sheet name="kudo" sheetId="1" r:id="rId2"/>
     <sheet name="delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -82,142 +82,247 @@
     <t>input</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/md-content/md-virtual-repeat-container/div/div[2]/md-list-item[1]/div/button</t>
-  </si>
-  <si>
     <t>Click First Patient</t>
   </si>
   <si>
-    <t>(//div[@id="widget" and @class="timeline-widget margin-0 flex-70 flex-xs-100  widget md-whiteframe-z2 widget md-whiteframe-z2 flex-order-1 layout-column flex"])[2]</t>
-  </si>
-  <si>
-    <t>day 1 - 3 call</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.log.status.contactStatus"]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>spoke with patient</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.log.followups[0].idBadgeWorn"]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.log.followups[0].explainedHHAndServices"]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.log.followups[0].socPacketReceived"]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//md-radio-group[@ng-model="vm.log.followups[0].fluVaccine"]//md-radio-button[1]</t>
-  </si>
-  <si>
-    <t>//textarea[@ng-model="vm.log.followups[0].note"]</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>//textarea[@ng-model="vm.log.followups[vm.isKudo].receiveBy"]</t>
-  </si>
-  <si>
-    <t>//textarea[@ng-model="vm.log.followups[vm.isKudo].agency"]</t>
-  </si>
-  <si>
-    <t>receive by</t>
+    <t>//input[@name="admittingClinician"]</t>
+  </si>
+  <si>
+    <t>nature of kudo</t>
+  </si>
+  <si>
+    <t>main person involved</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>/html/body/md-backdrop</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>//md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>Click add icon</t>
+  </si>
+  <si>
+    <t>Add kudo</t>
+  </si>
+  <si>
+    <t>Add details</t>
+  </si>
+  <si>
+    <t>contact status</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
+    <t>NO REMARKS</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/div/md-content/md-content/md-content[1]/md-fab-speed-dial/md-fab-actions/div[2]/button</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-fab-speed-dial/md-fab-trigger</t>
+  </si>
+  <si>
+    <t>//div[@id='widget']/div/div/div/div/p/span</t>
+  </si>
+  <si>
+    <t>//md-radio-button/div/div</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/md-content/form/md-input-container[2]/textarea</t>
+  </si>
+  <si>
+    <t>//div[3]/md-select-menu/md-content/md-option[3]/div</t>
+  </si>
+  <si>
+    <t>//md-toolbar[2]/button[2]</t>
+  </si>
+  <si>
+    <t>//md-input-container[4]/md-select</t>
+  </si>
+  <si>
+    <t>//md-option[2]/div[2]</t>
+  </si>
+  <si>
+    <t>//md-autocomplete-parent-scope/span</t>
+  </si>
+  <si>
+    <t>select complain</t>
+  </si>
+  <si>
+    <t>remarks for complaint</t>
+  </si>
+  <si>
+    <t>Employee receiving call</t>
   </si>
   <si>
     <t>agency</t>
   </si>
   <si>
-    <t>//md-select[@ng-model="vm.log.followups[vm.isKudo].kudoNature"]</t>
-  </si>
-  <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
-  </si>
-  <si>
-    <t>//input[@name="admittingClinician"]</t>
-  </si>
-  <si>
-    <t>admittingClinician</t>
-  </si>
-  <si>
-    <t>nature of kudo</t>
-  </si>
-  <si>
-    <t>main person involved</t>
-  </si>
-  <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-content/md-toolbar[2]/button</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>/html/body/md-backdrop</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>//md-list-item/div/button</t>
-  </si>
-  <si>
-    <t>Click add icon</t>
-  </si>
-  <si>
-    <t>Add kudo</t>
-  </si>
-  <si>
-    <t>Add details</t>
-  </si>
-  <si>
-    <t>contact status</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>Jody</t>
-  </si>
-  <si>
-    <t>NO REMARKS</t>
-  </si>
-  <si>
-    <t>/html/body/div/div/md-content/div/div/md-content/md-content/md-content[1]/md-fab-speed-dial/md-fab-actions/div[2]/button</t>
-  </si>
-  <si>
-    <t>hover</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-fab-speed-dial/md-fab-trigger</t>
-  </si>
-  <si>
-    <t>//div[@id='widget']/div/div/div/div/p/span</t>
-  </si>
-  <si>
-    <t>//md-radio-button/div/div</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/md-content/form/md-input-container[2]/textarea</t>
-  </si>
-  <si>
-    <t>//div[3]/md-select-menu/md-content/md-option[3]/div</t>
-  </si>
-  <si>
-    <t>//md-toolbar[2]/button[2]</t>
-  </si>
-  <si>
-    <t>//md-input-container[4]/md-select</t>
-  </si>
-  <si>
-    <t>//md-option[2]/div[2]</t>
-  </si>
-  <si>
-    <t>//md-autocomplete-parent-scope/span</t>
+    <t>kaiser</t>
+  </si>
+  <si>
+    <t>recived</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[2]/textarea</t>
+  </si>
+  <si>
+    <t>//div[3]/md-select-menu/md-content/md-option[5]/div</t>
+  </si>
+  <si>
+    <t>//div[3]/md-select-menu/md-content/md-option[6]/div</t>
+  </si>
+  <si>
+    <t>//div[3]/md-select-menu/md-content/md-option[7]/div</t>
+  </si>
+  <si>
+    <t>//div[3]/md-select-menu/md-content/md-option[10]/div</t>
+  </si>
+  <si>
+    <t>//input[@name="Clinician"]</t>
+  </si>
+  <si>
+    <t>mandy</t>
+  </si>
+  <si>
+    <t>//div[2]/ul/li</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>no propercare</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Reviewed mgr</t>
+  </si>
+  <si>
+    <t>Maya Myra</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>dept chief</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Reviewed Dept chief</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dept chief</t>
+  </si>
+  <si>
+    <t>Audit dept</t>
+  </si>
+  <si>
+    <t>Mgr report</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[5]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[6]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[7]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[8]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[9]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[10]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[11]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[12]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[13]/textarea</t>
+  </si>
+  <si>
+    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[14]/textarea</t>
+  </si>
+  <si>
+    <t>//md-fab-actions/div/button</t>
+  </si>
+  <si>
+    <t>patr</t>
+  </si>
+  <si>
+    <t>//md-radio-button[3]</t>
+  </si>
+  <si>
+    <t>//md-dialog-actions/button[2]</t>
+  </si>
+  <si>
+    <t>confirm delete</t>
+  </si>
+  <si>
+    <t>//md-toolbar[2]/button</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>//md-dialog-actions/button</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>mar</t>
   </si>
 </sst>
 </file>
@@ -578,10 +683,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -691,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -702,10 +1386,10 @@
     </row>
     <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -722,13 +1406,13 @@
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -742,10 +1426,10 @@
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -762,10 +1446,10 @@
     </row>
     <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -782,10 +1466,10 @@
     </row>
     <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -802,24 +1486,24 @@
     </row>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -836,7 +1520,7 @@
     </row>
     <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -853,7 +1537,7 @@
     </row>
     <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -870,10 +1554,10 @@
     </row>
     <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -890,21 +1574,21 @@
     </row>
     <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -922,10 +1606,10 @@
     </row>
     <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
@@ -946,48 +1630,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1003,9 +1688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1021,9 +1709,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1039,27 +1730,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1075,54 +1771,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -1138,9 +1855,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>34</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -1156,12 +1876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -1177,19 +1897,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="3">
         <v>1</v>
       </c>
@@ -1200,47 +1918,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavya.mothukuri/work_repos/ironman-qa-repo/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
     <sheet name="kudo" sheetId="1" r:id="rId2"/>
     <sheet name="delete" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -323,13 +318,16 @@
   </si>
   <si>
     <t>mar</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,7 +437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -474,7 +472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -682,21 +680,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -761,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -782,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -801,8 +799,11 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -823,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -844,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -865,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -886,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -907,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -921,7 +922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -935,7 +936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -949,7 +950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -970,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>52</v>
       </c>
@@ -988,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>54</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="60">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="60">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="60">
       <c r="A29" s="3" t="s">
         <v>72</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="60">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="60">
       <c r="A31" s="3" t="s">
         <v>76</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -1261,27 +1262,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="35.5" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="3"/>
-    <col min="2" max="2" width="50.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="4"/>
-    <col min="5" max="5" width="9.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="35.5" style="3"/>
+    <col min="1" max="1" width="35.42578125" style="3"/>
+    <col min="2" max="2" width="50.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="4"/>
+    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="35.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="25.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1383,8 +1384,11 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="25.5" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="25.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="25.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="25.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="25.5" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="25.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1631,20 +1635,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="67.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1749,8 +1753,11 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="30">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1834,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>94</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>96</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -1897,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -1918,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="3"/>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -321,6 +321,132 @@
   </si>
   <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>Skip on Error</t>
+  </si>
+  <si>
+    <t>Error Note</t>
+  </si>
+  <si>
+    <t>Fail to Proceed to CQ</t>
+  </si>
+  <si>
+    <t>fail to proceed to Follow Ups</t>
+  </si>
+  <si>
+    <t>Fail to click Search Bar</t>
+  </si>
+  <si>
+    <t>Fail TO search Patient</t>
+  </si>
+  <si>
+    <t>Fail To click First Patient</t>
+  </si>
+  <si>
+    <t>Fail to Click Add Icon</t>
+  </si>
+  <si>
+    <t>fail To select Complain</t>
+  </si>
+  <si>
+    <t>Fail to Add Details</t>
+  </si>
+  <si>
+    <t>Fail To delete</t>
+  </si>
+  <si>
+    <t>Fail to Cancel</t>
+  </si>
+  <si>
+    <t>Fail To confirm Delete</t>
+  </si>
+  <si>
+    <t>Skip on error</t>
+  </si>
+  <si>
+    <t>Error Notice</t>
+  </si>
+  <si>
+    <t>Fail to click Add Icon</t>
+  </si>
+  <si>
+    <t>Fail to Select Complain</t>
+  </si>
+  <si>
+    <t>Fail to Contact Status</t>
+  </si>
+  <si>
+    <t>Fail to Do Remarks</t>
+  </si>
+  <si>
+    <t>Fail to do Employee Receiving Call</t>
+  </si>
+  <si>
+    <t>Faill to Fill Agency</t>
+  </si>
+  <si>
+    <t>Fail to Process Kudo</t>
+  </si>
+  <si>
+    <t>Fail to Click Escape</t>
+  </si>
+  <si>
+    <t>Fail to select main person Involved</t>
+  </si>
+  <si>
+    <t>Fail to fill Details</t>
+  </si>
+  <si>
+    <t>Fail to fill Manager</t>
+  </si>
+  <si>
+    <t>fail to Fill Status</t>
+  </si>
+  <si>
+    <t>Fail to Review Manager</t>
+  </si>
+  <si>
+    <t>Fail to Input Report</t>
+  </si>
+  <si>
+    <t>Fail To fill Dept Chief</t>
+  </si>
+  <si>
+    <t>Fail to fill Status</t>
+  </si>
+  <si>
+    <t>Fail to fill Review Dept Chief</t>
+  </si>
+  <si>
+    <t>Faill To fill Dept Chief</t>
+  </si>
+  <si>
+    <t>Fail To fill Manager Report</t>
+  </si>
+  <si>
+    <t>Fail to click Save</t>
+  </si>
+  <si>
+    <t>Faill To add Kudo</t>
+  </si>
+  <si>
+    <t>Faill TO add Details</t>
+  </si>
+  <si>
+    <t>Fail To contact Status</t>
+  </si>
+  <si>
+    <t>Fail to do Remarks</t>
+  </si>
+  <si>
+    <t>Fail To click Nature of Kudo</t>
+  </si>
+  <si>
+    <t>Fail to click Escape</t>
+  </si>
+  <si>
+    <t>Fail to fill Main Person Involved</t>
   </si>
 </sst>
 </file>
@@ -362,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -379,6 +505,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,20 +813,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,544 +853,640 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="J5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="J11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="56.25" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="J12" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="J13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="42" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="6" t="s">
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="6" t="s">
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="6" t="s">
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B21" s="3" t="s">
+      <c r="J20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="J22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="J23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="J24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="60">
-      <c r="A26" s="3" t="s">
+      <c r="J25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="60">
+      <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="J26" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="60">
-      <c r="A28" s="3" t="s">
+      <c r="J27" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="60">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="60">
-      <c r="A29" s="3" t="s">
+      <c r="J28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60">
+      <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="60">
-      <c r="A30" s="3" t="s">
+      <c r="J29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="60">
+      <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="60">
-      <c r="A31" s="3" t="s">
+      <c r="J30" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60">
+      <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="J31" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1263,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1282,7 +1515,7 @@
     <col min="9" max="16384" width="35.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,8 +1537,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="25.5" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1324,8 +1563,11 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1344,8 +1586,11 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1364,8 +1609,11 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1387,8 +1635,11 @@
       <c r="H5" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1407,8 +1658,11 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1681,11 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1447,8 +1704,11 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1467,8 +1727,11 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J9" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1487,8 +1750,11 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J10" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1501,8 +1767,11 @@
       <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J11" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1521,8 +1790,11 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J12" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
@@ -1538,8 +1810,11 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J13" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
@@ -1555,8 +1830,11 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1853,11 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" customHeight="1">
+      <c r="J15" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1589,8 +1870,11 @@
       <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1">
+      <c r="J16" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1608,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" customHeight="1">
+    <row r="18" spans="1:10" ht="25.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1626,6 +1910,9 @@
       </c>
       <c r="G18" s="3">
         <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1636,19 +1923,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,263 +1961,302 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
+      <c r="J5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="30">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container/textarea</t>
   </si>
   <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[2]/textarea</t>
-  </si>
-  <si>
     <t>//div[3]/md-select-menu/md-content/md-option[5]/div</t>
   </si>
   <si>
@@ -447,6 +444,9 @@
   </si>
   <si>
     <t>Fail to fill Main Person Involved</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].homeHealthAgency"]</t>
   </si>
 </sst>
 </file>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -854,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -943,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
@@ -1059,7 +1059,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
@@ -1092,7 +1092,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
@@ -1109,7 +1109,7 @@
         <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
@@ -1117,7 +1117,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -1126,7 +1126,7 @@
         <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
@@ -1150,12 +1150,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1171,12 +1171,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -1192,12 +1192,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1213,12 +1213,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1">
@@ -1266,21 +1266,21 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1297,172 +1297,172 @@
     </row>
     <row r="22" spans="1:10" ht="46.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="41.25" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="60">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="60">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="60">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="25.5" customHeight="1">
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1538,10 +1538,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1">
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1633,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
@@ -1768,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
@@ -1871,7 +1871,7 @@
         <v>31</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1962,10 +1962,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
@@ -2051,19 +2051,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2119,7 +2119,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2159,15 +2159,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -2183,15 +2183,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -2207,15 +2207,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -2231,15 +2231,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -2255,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1124,6 +1124,9 @@
       </c>
       <c r="D13" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>118</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].homeHealthAgency"]</t>
+  </si>
+  <si>
+    <t>//md-backdrop[@class="_md-select-backdrop _md-click-catcher ng-scope md-cs-content-theme-theme"]</t>
   </si>
 </sst>
 </file>
@@ -815,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1245,7 +1248,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -447,16 +447,13 @@
   </si>
   <si>
     <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].homeHealthAgency"]</t>
-  </si>
-  <si>
-    <t>//md-backdrop[@class="_md-select-backdrop _md-click-catcher ng-scope md-cs-content-theme-theme"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +466,13 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -512,7 +516,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -819,684 +832,685 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="29.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34" style="8" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="8"/>
+    <col min="8" max="8" width="17.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="B19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="60">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="60">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="60">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="60">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="60">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Inprogress</t>
   </si>
   <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[5]/textarea</t>
-  </si>
-  <si>
     <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[6]/textarea</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>Fail to Process Kudo</t>
   </si>
   <si>
-    <t>Fail to Click Escape</t>
-  </si>
-  <si>
     <t>Fail to select main person Involved</t>
   </si>
   <si>
@@ -447,6 +441,9 @@
   </si>
   <si>
     <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].homeHealthAgency"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].complaintDetail"]</t>
   </si>
 </sst>
 </file>
@@ -829,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -870,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -897,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -921,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
@@ -945,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -959,7 +956,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -968,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -995,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
@@ -1019,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1027,7 +1024,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -1043,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1067,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
@@ -1075,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
@@ -1091,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
@@ -1108,7 +1105,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
@@ -1125,7 +1122,7 @@
         <v>49</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
@@ -1133,7 +1130,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>16</v>
@@ -1145,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
@@ -1169,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
@@ -1190,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
@@ -1211,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
@@ -1232,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
@@ -1253,70 +1250,63 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="46.5" customHeight="1">
+    <row r="22" spans="1:10" ht="41.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>77</v>
@@ -1325,15 +1315,15 @@
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="41.25" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="47.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>78</v>
@@ -1342,15 +1332,15 @@
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="47.25" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>79</v>
@@ -1359,15 +1349,15 @@
         <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="25.5" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60">
       <c r="A25" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>80</v>
@@ -1376,15 +1366,15 @@
         <v>16</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="60">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>81</v>
@@ -1392,16 +1382,16 @@
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>67</v>
+      <c r="D26" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="25.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60">
       <c r="A27" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>82</v>
@@ -1409,16 +1399,16 @@
       <c r="C27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>69</v>
+      <c r="D27" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="60">
       <c r="A28" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>83</v>
@@ -1427,15 +1417,15 @@
         <v>16</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="60">
       <c r="A29" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>84</v>
@@ -1444,15 +1434,15 @@
         <v>16</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="60">
       <c r="A30" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>85</v>
@@ -1461,51 +1451,34 @@
         <v>16</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="60">
-      <c r="A31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1558,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1">
@@ -1584,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
@@ -1607,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -1630,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1653,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1679,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
@@ -1702,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1725,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1748,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
@@ -1771,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
@@ -1788,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
@@ -1811,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
@@ -1831,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
@@ -1851,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
@@ -1874,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
@@ -1891,7 +1864,7 @@
         <v>31</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
@@ -1932,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +1955,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2009,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -2033,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -2057,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
@@ -2071,19 +2044,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2107,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -2131,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2139,7 +2112,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -2155,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2179,15 +2152,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -2203,15 +2176,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -2227,15 +2200,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -2251,15 +2224,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -2275,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -197,9 +197,6 @@
     <t>mandy</t>
   </si>
   <si>
-    <t>//div[2]/ul/li</t>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
@@ -257,33 +254,6 @@
     <t>Inprogress</t>
   </si>
   <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[6]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[7]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[8]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[9]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[10]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[11]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[12]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[13]/textarea</t>
-  </si>
-  <si>
-    <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container[14]/textarea</t>
-  </si>
-  <si>
     <t>//md-fab-actions/div/button</t>
   </si>
   <si>
@@ -444,6 +414,45 @@
   </si>
   <si>
     <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].complaintDetail"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].clinicianManager"]</t>
+  </si>
+  <si>
+    <t>//md-backdrop[@class="_md-select-backdrop _md-click-catcher ng-scope md-cs-content-theme-theme"]</t>
+  </si>
+  <si>
+    <t>clickp10</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].complaintStatusLevel1"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].reviewedByManager"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].managerResolutionReport"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].departmentManager"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].complaintStatusLevel2"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].reviewedbyDepartmentChief"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].nameofDepartment"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].departmentResolutionResponse"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.submit()"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="dialog.hide()"]</t>
   </si>
 </sst>
 </file>
@@ -826,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -867,10 +876,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -894,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -918,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
@@ -942,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -956,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -965,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -992,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
@@ -1016,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1024,7 +1033,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -1040,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1064,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
@@ -1072,7 +1081,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
@@ -1088,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
@@ -1105,7 +1114,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
@@ -1122,7 +1131,7 @@
         <v>49</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
@@ -1130,7 +1139,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>16</v>
@@ -1142,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
@@ -1166,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
@@ -1187,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
@@ -1208,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
@@ -1229,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
@@ -1250,211 +1259,211 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A19" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="38.25" customHeight="1">
+      <c r="B19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
+      <c r="J20" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="46.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="41.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45">
+      <c r="A25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="60">
-      <c r="A25" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="B25" s="8" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="60">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45">
       <c r="A27" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="A28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="60">
-      <c r="A28" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="B28" s="8" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45">
+      <c r="A29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="60">
-      <c r="A29" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
+      <c r="A30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="60">
-      <c r="A30" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="B30" s="8" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" customHeight="1">
@@ -1462,7 +1471,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>9</v>
@@ -1478,7 +1487,24 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1531,10 +1557,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1">
@@ -1557,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
@@ -1580,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -1603,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1626,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1652,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
@@ -1675,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1698,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1721,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
@@ -1744,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
@@ -1761,7 +1787,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
@@ -1784,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
@@ -1804,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
@@ -1824,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
@@ -1847,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
@@ -1864,7 +1890,7 @@
         <v>31</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
@@ -1905,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1955,10 +1981,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1982,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
@@ -2006,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -2030,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
@@ -2044,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2053,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2080,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -2104,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2112,7 +2138,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -2128,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2152,15 +2178,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -2176,15 +2202,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -2200,15 +2226,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -2224,15 +2250,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -2248,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>follow Ups</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[2]/button</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/div/md-content/div[2]/div/div/div/button</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>//button[@ng-click="dialog.hide()"]</t>
+  </si>
+  <si>
+    <t>//div[@class="dashboard-container padded-content-page ng-scope calendar-background-month-6 layout-column"]//div[3]/button</t>
   </si>
 </sst>
 </file>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -876,10 +876,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -911,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -927,15 +927,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
@@ -951,21 +951,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -974,18 +974,18 @@
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -1001,18 +1001,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8">
@@ -1025,15 +1025,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -1049,15 +1049,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
@@ -1073,15 +1073,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
@@ -1097,69 +1097,69 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
@@ -1175,12 +1175,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>9</v>
@@ -1196,12 +1196,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>9</v>
@@ -1217,12 +1217,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>9</v>
@@ -1238,12 +1238,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -1259,15 +1259,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="38.25" customHeight="1">
       <c r="B19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -1281,197 +1281,197 @@
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="J20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="46.5" customHeight="1">
       <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="J21" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="41.25" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="J22" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" customHeight="1">
       <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="J23" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="J24" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="A25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="J25" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="J26" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45">
       <c r="A27" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45">
       <c r="A28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="J28" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45">
       <c r="A29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="J29" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
       <c r="A30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="J30" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>9</v>
@@ -1487,12 +1487,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1557,10 +1557,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1">
@@ -1583,15 +1583,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1606,15 +1606,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1629,21 +1629,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1652,18 +1652,18 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1678,18 +1678,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1701,15 +1701,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -1724,15 +1724,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -1747,15 +1747,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -1770,32 +1770,32 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -1810,12 +1810,12 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -1830,12 +1830,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -1850,15 +1850,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -1873,29 +1873,29 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1981,10 +1981,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2008,15 +2008,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -2032,15 +2032,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -2056,41 +2056,41 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -2106,18 +2106,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1">
@@ -2130,15 +2130,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -2154,15 +2154,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -2178,15 +2178,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -2202,15 +2202,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -2226,15 +2226,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -2250,15 +2250,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -47,9 +47,6 @@
     <t>Delay After Action(Sec)</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[6]/button</t>
-  </si>
-  <si>
     <t>Compliance &amp; Quality</t>
   </si>
   <si>
@@ -452,7 +449,10 @@
     <t>//button[@ng-click="dialog.hide()"]</t>
   </si>
   <si>
-    <t>//div[@class="dashboard-container padded-content-page ng-scope calendar-background-month-6 layout-column"]//div[3]/button</t>
+    <t>(//button[@aria-label="Compliance &amp; Quality"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@aria-label="Follow Ups"])[2]</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -876,21 +876,21 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="8">
@@ -903,18 +903,18 @@
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8">
@@ -927,18 +927,18 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8">
@@ -951,21 +951,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -974,21 +974,21 @@
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8">
@@ -1001,18 +1001,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8">
@@ -1025,18 +1025,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8">
@@ -1049,18 +1049,18 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8">
@@ -1073,18 +1073,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="8">
@@ -1097,72 +1097,72 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="8">
@@ -1175,15 +1175,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8">
@@ -1196,15 +1196,15 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
       <c r="B16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8">
@@ -1217,15 +1217,15 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8">
@@ -1238,15 +1238,15 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
       <c r="B18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8">
@@ -1259,15 +1259,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="38.25" customHeight="1">
       <c r="B19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -1281,200 +1281,200 @@
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="J20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="46.5" customHeight="1">
       <c r="A21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="J21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="41.25" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="J22" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" customHeight="1">
       <c r="A23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="J23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="J24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="A25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="J25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="J26" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45">
       <c r="A27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45">
       <c r="A28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="J28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45">
       <c r="A29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="J29" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
       <c r="A30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="J30" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8">
@@ -1487,15 +1487,15 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1557,67 +1557,69 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>89</v>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1629,21 +1631,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1652,21 +1654,21 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1678,18 +1680,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1701,18 +1703,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1724,18 +1726,18 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1747,18 +1749,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1770,35 +1772,35 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1810,15 +1812,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1830,15 +1832,15 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1850,18 +1852,18 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1873,32 +1875,32 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
@@ -1913,13 +1915,13 @@
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1931,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1947,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1981,69 +1983,69 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>89</v>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1">
@@ -2056,44 +2058,44 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1">
@@ -2106,18 +2108,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1">
@@ -2130,18 +2132,18 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1">
@@ -2154,18 +2156,18 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1">
@@ -2178,18 +2180,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1">
@@ -2202,18 +2204,18 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1">
@@ -2226,18 +2228,18 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1">
@@ -2250,18 +2252,18 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1">
@@ -2274,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
@@ -838,7 +838,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>84</v>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>84</v>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>84</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -449,10 +449,7 @@
     <t>//button[@ng-click="dialog.hide()"]</t>
   </si>
   <si>
-    <t>(//button[@aria-label="Compliance &amp; Quality"])[2]</t>
-  </si>
-  <si>
-    <t>(//button[@aria-label="Follow Ups"])[2]</t>
+    <t>(//button[@ng-click="vm.go(entry.state)"])[3]</t>
   </si>
 </sst>
 </file>
@@ -838,7 +835,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -911,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1517,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1592,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1946,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2018,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
     <sheet name="kudo" sheetId="1" r:id="rId2"/>
-    <sheet name="delete" sheetId="3" r:id="rId3"/>
+    <sheet name="CareCoordination" sheetId="4" r:id="rId3"/>
+    <sheet name="delete" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -92,9 +93,6 @@
     <t>escape</t>
   </si>
   <si>
-    <t>patient</t>
-  </si>
-  <si>
     <t>//md-list-item/div/button</t>
   </si>
   <si>
@@ -251,9 +249,6 @@
     <t>//md-fab-actions/div/button</t>
   </si>
   <si>
-    <t>patr</t>
-  </si>
-  <si>
     <t>//md-radio-button[3]</t>
   </si>
   <si>
@@ -275,12 +270,6 @@
     <t>cancel</t>
   </si>
   <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>Skip on Error</t>
   </si>
   <si>
@@ -450,6 +439,123 @@
   </si>
   <si>
     <t>(//button[@ng-click="vm.go(entry.state)"])[3]</t>
+  </si>
+  <si>
+    <t>gordo</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.addFollowUp('ActualPatientCoordination')"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care Coordination </t>
+  </si>
+  <si>
+    <t>Fail to click Care Coordination</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.log.status.contactStatus"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>fail to check Contact status</t>
+  </si>
+  <si>
+    <t>Contact Status</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.status.contactRemarks"]</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>fail to input Remarks</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followupDetail.patientLocation"]</t>
+  </si>
+  <si>
+    <t>Patient Location</t>
+  </si>
+  <si>
+    <t>Fail to Input Patient Location</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followupDetail.followupContact"]</t>
+  </si>
+  <si>
+    <t>Follow up Contact</t>
+  </si>
+  <si>
+    <t>fail to input Follow up Contact</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[0].remarks"]</t>
+  </si>
+  <si>
+    <t>Remarks Care</t>
+  </si>
+  <si>
+    <t>fail to Input Remakrs Care Coordination</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isKudo].receiveBy"]</t>
+  </si>
+  <si>
+    <t>Employee receiving Call</t>
+  </si>
+  <si>
+    <t>Fail to Input Receiving Call</t>
+  </si>
+  <si>
+    <t>Test Rem</t>
+  </si>
+  <si>
+    <t>Test Patient Location</t>
+  </si>
+  <si>
+    <t>Test Rem Care</t>
+  </si>
+  <si>
+    <t>Test Emp Call</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.log.followups[vm.isKudo].agency"]</t>
+  </si>
+  <si>
+    <t>Home Healhy Agency</t>
+  </si>
+  <si>
+    <t>Test Agency</t>
+  </si>
+  <si>
+    <t>Fail to fill Agency</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.log.followups[vm.isKudo].kudoNature"]</t>
+  </si>
+  <si>
+    <t>Nature Of kudos Select</t>
+  </si>
+  <si>
+    <t>Fail to Select nature of kudo</t>
+  </si>
+  <si>
+    <t>//TEXTAREA[@ng-model="vm.log.followups[vm.isKudo].otherReason"]</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>fail to fill Other Reason</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Fail to Save</t>
   </si>
 </sst>
 </file>
@@ -498,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -512,12 +618,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -834,673 +936,670 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="34" style="8" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="8"/>
-    <col min="8" max="8" width="17.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18" style="8" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34" style="6" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="8" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="12" spans="1:10" ht="56.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="s">
+    <row r="13" spans="1:10" ht="50.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8" t="s">
+    <row r="14" spans="1:10" ht="42" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
+    <row r="15" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="38.25" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="D20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="8" t="s">
+    <row r="21" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="D21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="8" t="s">
+    <row r="22" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="D22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="s">
+    <row r="23" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="38.25" customHeight="1">
-      <c r="B19" s="8" t="s">
+    <row r="24" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45">
+      <c r="A25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="D26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="D27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="A28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45">
+      <c r="A29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
+      <c r="A30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="45">
-      <c r="A25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="D30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45">
-      <c r="A27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="31" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45">
-      <c r="A28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="32" spans="1:10">
+      <c r="B32" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45">
-      <c r="A29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="45">
-      <c r="A30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1512,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1554,58 +1653,58 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>88</v>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -1628,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1641,8 +1740,8 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
+      <c r="D5" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1650,11 +1749,8 @@
       <c r="G5" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1662,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -1677,18 +1773,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1700,15 +1796,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1723,15 +1819,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -1746,15 +1842,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1769,24 +1865,24 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
@@ -1794,28 +1890,28 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1829,12 +1925,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>37</v>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1849,14 +1945,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1872,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
@@ -1886,15 +1982,15 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1915,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1930,7 +2026,24 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1941,10 +2054,613 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="12.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="27.28515625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="A10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="A11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="A13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1112223333</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45">
+      <c r="A14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45">
+      <c r="A15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="38.25" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45">
+      <c r="B25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1980,58 +2696,58 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>88</v>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -2055,10 +2771,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2068,8 +2784,8 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>83</v>
+      <c r="D5" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2077,11 +2793,8 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2089,7 +2802,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2105,18 +2818,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1">
@@ -2129,15 +2842,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2153,15 +2866,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2177,15 +2890,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2201,15 +2914,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -2225,15 +2938,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -2249,15 +2962,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -2273,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>cancel</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
   <si>
     <t>Skip on Error</t>
@@ -936,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -975,10 +978,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -986,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1002,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -1010,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1026,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
@@ -1050,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1063,17 +1066,18 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>6</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1097,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
@@ -1121,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1145,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1169,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
@@ -1193,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
@@ -1210,7 +1214,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
@@ -1227,7 +1231,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
@@ -1235,7 +1239,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>14</v>
@@ -1247,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
@@ -1271,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
@@ -1292,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
@@ -1313,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
@@ -1334,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
@@ -1355,15 +1359,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="38.25" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -1389,7 +1393,7 @@
         <v>53</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="46.5" customHeight="1">
@@ -1397,7 +1401,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>14</v>
@@ -1406,7 +1410,7 @@
         <v>55</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="41.25" customHeight="1">
@@ -1414,7 +1418,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>14</v>
@@ -1423,7 +1427,7 @@
         <v>57</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" customHeight="1">
@@ -1431,7 +1435,7 @@
         <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>14</v>
@@ -1440,7 +1444,7 @@
         <v>59</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1">
@@ -1448,7 +1452,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>14</v>
@@ -1457,7 +1461,7 @@
         <v>61</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45">
@@ -1465,7 +1469,7 @@
         <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>14</v>
@@ -1474,7 +1478,7 @@
         <v>63</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" customHeight="1">
@@ -1482,7 +1486,7 @@
         <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>14</v>
@@ -1491,7 +1495,7 @@
         <v>65</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45">
@@ -1499,7 +1503,7 @@
         <v>58</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>14</v>
@@ -1508,7 +1512,7 @@
         <v>66</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45">
@@ -1516,7 +1520,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>14</v>
@@ -1525,7 +1529,7 @@
         <v>68</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45">
@@ -1533,7 +1537,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>14</v>
@@ -1542,7 +1546,7 @@
         <v>70</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
@@ -1550,7 +1554,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>14</v>
@@ -1559,7 +1563,7 @@
         <v>72</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" customHeight="1">
@@ -1567,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
@@ -1583,12 +1587,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1613,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1653,10 +1657,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -1664,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1680,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -1688,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1704,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -1727,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1741,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1749,8 +1753,11 @@
       <c r="G5" s="3">
         <v>6</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1773,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
@@ -1796,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
@@ -1819,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -1842,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
@@ -1865,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
@@ -1882,7 +1889,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
@@ -1905,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
@@ -1925,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
@@ -1945,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
@@ -1968,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
@@ -1985,7 +1992,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
@@ -2026,12 +2033,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -2056,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2097,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -2108,7 +2115,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2124,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -2132,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2148,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -2172,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -2186,7 +2193,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2194,8 +2201,11 @@
       <c r="G5" s="6">
         <v>6</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -2219,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
@@ -2243,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -2290,78 +2300,78 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>14</v>
@@ -2373,72 +2383,72 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
       <c r="A14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45">
       <c r="A16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G16" s="6">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45">
       <c r="A17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -2453,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
@@ -2474,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1">
@@ -2495,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1">
@@ -2516,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30.75" customHeight="1">
@@ -2537,15 +2547,15 @@
         <v>1</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="38.25" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -2571,7 +2581,7 @@
         <v>28</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
@@ -2593,27 +2603,27 @@
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="B25" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -2628,12 +2638,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -2659,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2696,10 +2706,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -2707,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2723,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -2731,7 +2741,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2747,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -2771,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2785,7 +2795,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2793,8 +2803,11 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2818,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -2842,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2866,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2890,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2914,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2938,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2962,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2986,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -2670,7 +2670,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -444,9 +444,6 @@
     <t>(//button[@ng-click="vm.go(entry.state)"])[3]</t>
   </si>
   <si>
-    <t>gordo</t>
-  </si>
-  <si>
     <t>//button[@ng-click="vm.addFollowUp('ActualPatientCoordination')"]</t>
   </si>
   <si>
@@ -559,6 +556,9 @@
   </si>
   <si>
     <t>Fail to Save</t>
+  </si>
+  <si>
+    <t>ab44a7e384428640</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,9 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
@@ -1618,7 +1620,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1745,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2193,7 +2195,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2258,25 +2260,25 @@
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
@@ -2305,73 +2307,73 @@
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>14</v>
@@ -2383,72 +2385,72 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
       <c r="A14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -2463,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
@@ -2603,24 +2605,24 @@
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="B25" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>136</v>
@@ -2638,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
@@ -2670,7 +2672,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2784,7 +2786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="complain" sheetId="2" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>follow Ups</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/md-content/div[2]/div/div/div/button</t>
-  </si>
-  <si>
     <t>search icon</t>
   </si>
   <si>
@@ -559,6 +556,9 @@
   </si>
   <si>
     <t>ab44a7e384428640</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.searchFilter()"]</t>
   </si>
 </sst>
 </file>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -978,10 +978,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -1013,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1029,15 +1029,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -1053,21 +1053,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -1076,18 +1076,18 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -1103,18 +1103,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6">
@@ -1127,15 +1127,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
@@ -1151,15 +1151,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1175,15 +1175,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
@@ -1199,69 +1199,69 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.25" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.25" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
@@ -1277,12 +1277,12 @@
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
@@ -1298,12 +1298,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.5" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
@@ -1319,12 +1319,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" customHeight="1">
       <c r="B17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -1340,12 +1340,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
       <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
@@ -1361,15 +1361,15 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="38.25" customHeight="1">
       <c r="B19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -1383,197 +1383,197 @@
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="J20" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="46.5" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="J21" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="41.25" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="J22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="J23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1">
       <c r="A24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="J24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="A25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="J25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="25.5" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="J26" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45">
       <c r="A27" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45">
       <c r="A28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="J28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45">
       <c r="A29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="J29" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
       <c r="A30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="J30" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="25.5" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
@@ -1589,12 +1589,12 @@
         <v>1</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1659,10 +1659,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -1670,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -1694,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1710,15 +1710,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1733,21 +1733,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1756,18 +1756,18 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -1782,18 +1782,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1805,15 +1805,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1828,15 +1828,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -1851,15 +1851,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1874,32 +1874,32 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1914,12 +1914,12 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1934,12 +1934,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1954,15 +1954,15 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1977,29 +1977,29 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -2035,12 +2035,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -2066,7 +2066,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2106,10 +2106,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -2117,7 +2117,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -2141,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2157,15 +2157,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -2181,21 +2181,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2204,18 +2204,18 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
@@ -2231,18 +2231,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6">
@@ -2255,38 +2255,38 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -2302,81 +2302,81 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="A11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
         <v>1112223333</v>
@@ -2385,72 +2385,72 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
       <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45">
       <c r="A16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45">
       <c r="A17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -2465,12 +2465,12 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
@@ -2486,12 +2486,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1">
       <c r="B19" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
@@ -2507,12 +2507,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1">
       <c r="B20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
@@ -2528,12 +2528,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30.75" customHeight="1">
       <c r="B21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
@@ -2549,15 +2549,15 @@
         <v>1</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="38.25" customHeight="1">
       <c r="B22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -2571,24 +2571,24 @@
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -2605,27 +2605,27 @@
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="B25" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -2640,12 +2640,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2708,10 +2708,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -2719,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -2743,7 +2743,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2759,15 +2759,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2783,21 +2783,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2806,18 +2806,18 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2833,18 +2833,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1">
@@ -2857,15 +2857,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2881,15 +2881,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2905,15 +2905,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2929,15 +2929,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -2953,15 +2953,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -2977,15 +2977,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Click add icon</t>
   </si>
   <si>
-    <t>Add kudo</t>
-  </si>
-  <si>
     <t>Add details</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>NO REMARKS</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/div/md-content/md-content/md-content[1]/md-fab-speed-dial/md-fab-actions/div[2]/button</t>
-  </si>
-  <si>
     <t>hover</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>Error Notice</t>
   </si>
   <si>
-    <t>Fail to click Add Icon</t>
-  </si>
-  <si>
     <t>Fail to Select Complain</t>
   </si>
   <si>
@@ -372,9 +363,6 @@
     <t>Fail to click Save</t>
   </si>
   <si>
-    <t>Faill To add Kudo</t>
-  </si>
-  <si>
     <t>Faill TO add Details</t>
   </si>
   <si>
@@ -441,15 +429,6 @@
     <t>(//button[@ng-click="vm.go(entry.state)"])[3]</t>
   </si>
   <si>
-    <t>//button[@ng-click="vm.addFollowUp('ActualPatientCoordination')"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Care Coordination </t>
-  </si>
-  <si>
-    <t>Fail to click Care Coordination</t>
-  </si>
-  <si>
     <t>//md-radio-group[@ng-model="vm.log.status.contactStatus"]/md-radio-button[1]</t>
   </si>
   <si>
@@ -559,6 +538,24 @@
   </si>
   <si>
     <t>//button[@ng-click="vm.searchFilter()"]</t>
+  </si>
+  <si>
+    <t>(//div[@ng-class="::{'widget-overlay-title': vm.overlayTitle}"])[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select </t>
+  </si>
+  <si>
+    <t>(//md-input-container[4]/md-select)[2]</t>
+  </si>
+  <si>
+    <t>(//div[@ng-class="::{'widget-overlay-title': vm.overlayTitle}"])[2]</t>
+  </si>
+  <si>
+    <t>(//div[@ng-class="::{'widget-overlay-title': vm.overlayTitle}"])[3]</t>
+  </si>
+  <si>
+    <t>a62f003cb13c629f</t>
   </si>
 </sst>
 </file>
@@ -937,18 +934,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34" style="6" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="6"/>
     <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="18" style="6" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="6" customWidth="1"/>
@@ -978,10 +976,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -989,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1005,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -1013,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1029,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
@@ -1037,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -1053,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1076,10 +1074,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1103,18 +1101,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6">
@@ -1127,15 +1125,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
@@ -1151,117 +1149,111 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="47.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="32.25" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="56.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="47.25" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B14" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
@@ -1277,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1">
@@ -1298,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.5" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30.75" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>48</v>
       </c>
@@ -1319,88 +1311,80 @@
         <v>1</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="38.25" customHeight="1">
+      <c r="B17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
       <c r="J18" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="38.25" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="B19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="41.25" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="46.5" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="47.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>123</v>
@@ -1409,15 +1393,15 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="41.25" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>124</v>
@@ -1426,186 +1410,152 @@
         <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="47.25" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>60</v>
+      <c r="D24" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45">
       <c r="A25" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="25.5" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45">
       <c r="A26" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>64</v>
+      <c r="D26" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45">
       <c r="A27" s="6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45">
       <c r="A28" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J28" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45">
-      <c r="A29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="45">
-      <c r="A30" s="6" t="s">
-        <v>70</v>
-      </c>
+    <row r="30" spans="1:10">
       <c r="B30" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1617,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1659,10 +1609,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -1670,7 +1620,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1686,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -1694,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1710,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -1718,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1733,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1756,10 +1706,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1782,18 +1732,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1804,16 +1754,16 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>88</v>
+      <c r="J7" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1828,145 +1778,137 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="15" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>1</v>
       </c>
@@ -1975,36 +1917,38 @@
       </c>
       <c r="G15" s="3">
         <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="25.5" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3"/>
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -2012,46 +1956,6 @@
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2063,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2106,10 +2010,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -2117,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2133,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -2141,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2157,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -2165,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -2181,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -2204,10 +2108,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -2231,18 +2135,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
+      <c r="B7" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="6">
@@ -2255,206 +2159,201 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45">
       <c r="A8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45">
+      <c r="A9" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45">
-      <c r="A11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>160</v>
+      <c r="D11" s="6">
+        <v>1112223333</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>147</v>
+      <c r="J11" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45">
       <c r="A12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6">
-        <v>1112223333</v>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="45">
-      <c r="A16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>164</v>
+    </row>
+    <row r="16" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B16" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
       </c>
       <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45">
-      <c r="A17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J16" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="6">
         <v>1</v>
       </c>
@@ -2462,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="6">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
@@ -2486,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30.75" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
@@ -2507,17 +2406,16 @@
         <v>1</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="38.25" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
@@ -2527,137 +2425,96 @@
       <c r="G20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="38.25" customHeight="1">
-      <c r="B22" s="6" t="s">
-        <v>125</v>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45">
+      <c r="B23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>165</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="45">
-      <c r="B25" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="J24" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2672,7 +2529,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2708,10 +2565,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -2719,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2735,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -2743,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2759,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2767,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2783,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
@@ -2797,7 +2654,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2806,10 +2663,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2833,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -2841,10 +2698,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1">
@@ -2857,15 +2714,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2881,15 +2738,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2905,15 +2762,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2929,15 +2786,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -2953,15 +2810,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -2977,15 +2834,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3001,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>a62f003cb13c629f</t>
+  </si>
+  <si>
+    <t>fullname</t>
   </si>
 </sst>
 </file>
@@ -936,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1074,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>84</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="complain" sheetId="2" r:id="rId1"/>
-    <sheet name="kudo" sheetId="1" r:id="rId2"/>
+    <sheet name="kudo" sheetId="1" r:id="rId1"/>
+    <sheet name="complain" sheetId="2" r:id="rId2"/>
     <sheet name="CareCoordination" sheetId="4" r:id="rId3"/>
     <sheet name="delete" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Error Notice</t>
   </si>
   <si>
-    <t>Fail to Select Complain</t>
-  </si>
-  <si>
     <t>Fail to Contact Status</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>Fail to click Save</t>
   </si>
   <si>
-    <t>Faill TO add Details</t>
-  </si>
-  <si>
     <t>Fail To contact Status</t>
   </si>
   <si>
@@ -393,9 +387,6 @@
     <t>//md-backdrop[@class="_md-select-backdrop _md-click-catcher ng-scope md-cs-content-theme-theme"]</t>
   </si>
   <si>
-    <t>clickp10</t>
-  </si>
-  <si>
     <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].complaintStatusLevel1"]</t>
   </si>
   <si>
@@ -540,25 +531,67 @@
     <t>//button[@ng-click="vm.searchFilter()"]</t>
   </si>
   <si>
-    <t>(//div[@ng-class="::{'widget-overlay-title': vm.overlayTitle}"])[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select </t>
-  </si>
-  <si>
     <t>(//md-input-container[4]/md-select)[2]</t>
   </si>
   <si>
-    <t>(//div[@ng-class="::{'widget-overlay-title': vm.overlayTitle}"])[2]</t>
-  </si>
-  <si>
-    <t>(//div[@ng-class="::{'widget-overlay-title': vm.overlayTitle}"])[3]</t>
-  </si>
-  <si>
-    <t>a62f003cb13c629f</t>
-  </si>
-  <si>
     <t>fullname</t>
+  </si>
+  <si>
+    <t>a70f3e3b7e3f26af</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.addNewCall($event)"]</t>
+  </si>
+  <si>
+    <t>fail to click add new call</t>
+  </si>
+  <si>
+    <t>Add New Call</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.followupType"]</t>
+  </si>
+  <si>
+    <t>Select new call</t>
+  </si>
+  <si>
+    <t>fail to select new call</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>Add call</t>
+  </si>
+  <si>
+    <t>fail to add call</t>
+  </si>
+  <si>
+    <t>Select Complain</t>
+  </si>
+  <si>
+    <t>fail to select complain</t>
+  </si>
+  <si>
+    <t>(//div[@class="widget-content layout-column layout-align-start-stretch flex-order-2"])[5]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
+  </si>
+  <si>
+    <t>Select kudo</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-click="$mdSelect.toggle($event)"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[3]</t>
+  </si>
+  <si>
+    <t>Select Care Coordination</t>
+  </si>
+  <si>
+    <t>fail to select care coordination</t>
   </si>
 </sst>
 </file>
@@ -937,640 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="6" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="6"/>
-    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="42" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="38.25" customHeight="1">
-      <c r="B17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.25" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="45">
-      <c r="A23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="45">
-      <c r="A25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="45">
-      <c r="A26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="45">
-      <c r="A27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -1623,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1647,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1671,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1700,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1709,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
@@ -1738,138 +1138,139 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>115</v>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1884,81 +1285,920 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J19" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18" style="6" customWidth="1"/>
+    <col min="10" max="10" width="30" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="56.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50.25" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="42" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="38.25" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="46.5" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="47.25" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="A28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45">
+      <c r="A31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45">
+      <c r="A32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45">
+      <c r="A33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="25.5" customHeight="1">
-      <c r="B17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="B34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1970,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2024,7 +2264,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2048,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2072,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -2102,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2111,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>84</v>
@@ -2142,11 +2382,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
+      <c r="A7" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -2161,363 +2401,466 @@
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45">
-      <c r="A8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="J7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="A13" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45">
+      <c r="A14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45">
-      <c r="A9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45">
-      <c r="A11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1112223333</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45">
-      <c r="A12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45">
-      <c r="A13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45">
-      <c r="A14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>160</v>
+      <c r="J14" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1112223333</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="A18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.5" customHeight="1">
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30.75" customHeight="1">
+      <c r="B24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="38.25" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45">
+      <c r="B28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.5" customHeight="1">
-      <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="38.25" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="45">
-      <c r="B23" s="6" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>2</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2579,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2603,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2627,7 +2970,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2657,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="kudo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -534,12 +534,6 @@
     <t>(//md-input-container[4]/md-select)[2]</t>
   </si>
   <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>a70f3e3b7e3f26af</t>
-  </si>
-  <si>
     <t>//button[@ng-click="vm.addNewCall($event)"]</t>
   </si>
   <si>
@@ -592,6 +586,9 @@
   </si>
   <si>
     <t>fail to select care coordination</t>
+  </si>
+  <si>
+    <t>649105ab7ea6493b</t>
   </si>
 </sst>
 </file>
@@ -972,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1100,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
@@ -1140,10 +1137,10 @@
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -1159,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>132</v>
@@ -1175,10 +1172,10 @@
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1194,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
@@ -1219,7 +1216,7 @@
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>128</v>
@@ -1238,15 +1235,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -1262,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
@@ -1605,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -1614,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>84</v>
@@ -1646,10 +1643,10 @@
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -1665,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>132</v>
@@ -1681,10 +1678,10 @@
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1700,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>128</v>
@@ -1744,15 +1741,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -1768,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32.25" customHeight="1">
@@ -2212,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2342,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2351,7 +2348,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>84</v>
@@ -2383,10 +2380,10 @@
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -2402,13 +2399,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>132</v>
@@ -2418,10 +2415,10 @@
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -2437,13 +2434,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
@@ -2462,7 +2459,7 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>128</v>
@@ -2481,15 +2478,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -2505,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="kudo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="191">
   <si>
     <t>Name</t>
   </si>
@@ -588,7 +588,16 @@
     <t>fail to select care coordination</t>
   </si>
   <si>
-    <t>649105ab7ea6493b</t>
+    <t>a5a3c404b6a6a3c8</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Compliance &amp; Quality"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.go(entry.state)" and @aria-label="Follow Ups"]</t>
+  </si>
+  <si>
+    <t>firstname</t>
   </si>
 </sst>
 </file>
@@ -969,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1019,8 +1028,8 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>130</v>
+      <c r="B2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1044,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1106,7 +1115,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
@@ -1523,8 +1532,8 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>130</v>
+      <c r="B2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1548,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1611,7 +1620,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>84</v>
@@ -2209,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2260,8 +2269,8 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>130</v>
+      <c r="B2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2285,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2348,7 +2357,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>84</v>

--- a/resources/CQ.xlsx
+++ b/resources/CQ.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -126,9 +126,6 @@
     <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/md-content/form/md-input-container[2]/textarea</t>
   </si>
   <si>
-    <t>//div[3]/md-select-menu/md-content/md-option[3]/div</t>
-  </si>
-  <si>
     <t>//md-toolbar[2]/button[2]</t>
   </si>
   <si>
@@ -162,18 +159,6 @@
     <t>//md-content[@id='ui-admin-email']/md-content/md-content/md-dialog-content/md-content/div[3]/md-content/form/md-input-container/textarea</t>
   </si>
   <si>
-    <t>//div[3]/md-select-menu/md-content/md-option[5]/div</t>
-  </si>
-  <si>
-    <t>//div[3]/md-select-menu/md-content/md-option[6]/div</t>
-  </si>
-  <si>
-    <t>//div[3]/md-select-menu/md-content/md-option[7]/div</t>
-  </si>
-  <si>
-    <t>//div[3]/md-select-menu/md-content/md-option[10]/div</t>
-  </si>
-  <si>
     <t>//input[@name="Clinician"]</t>
   </si>
   <si>
@@ -384,9 +369,6 @@
     <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].clinicianManager"]</t>
   </si>
   <si>
-    <t>//md-backdrop[@class="_md-select-backdrop _md-click-catcher ng-scope md-cs-content-theme-theme"]</t>
-  </si>
-  <si>
     <t>//textarea[@ng-model="vm.log.followups[vm.isComplaint].complaintStatusLevel1"]</t>
   </si>
   <si>
@@ -531,9 +513,6 @@
     <t>//button[@ng-click="vm.searchFilter()"]</t>
   </si>
   <si>
-    <t>(//md-input-container[4]/md-select)[2]</t>
-  </si>
-  <si>
     <t>//button[@ng-click="vm.addNewCall($event)"]</t>
   </si>
   <si>
@@ -552,9 +531,6 @@
     <t>fail to select new call</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[1]</t>
-  </si>
-  <si>
     <t>Add call</t>
   </si>
   <si>
@@ -570,18 +546,12 @@
     <t>(//div[@class="widget-content layout-column layout-align-start-stretch flex-order-2"])[5]</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[2]</t>
-  </si>
-  <si>
     <t>Select kudo</t>
   </si>
   <si>
     <t>//md-checkbox[@ng-click="$mdSelect.toggle($event)"]</t>
   </si>
   <si>
-    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]//md-option[3]</t>
-  </si>
-  <si>
     <t>Select Care Coordination</t>
   </si>
   <si>
@@ -598,6 +568,33 @@
   </si>
   <si>
     <t>firstname</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]//md-option[2]</t>
+  </si>
+  <si>
+    <t>//md-option[3]/div[3]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]//md-option[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.log.followups[vm.isComplaint].natureOfComplaints"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]//md-option[5]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]//md-option[6]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]//md-option[7]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]//md-option[3]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-blue-grey-theme _md-active _md-clickable"]//md-option[9]</t>
   </si>
 </sst>
 </file>
@@ -979,7 +976,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.42578125" defaultRowHeight="25.5" customHeight="1"/>
@@ -1018,10 +1015,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -1029,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1045,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -1053,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1069,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -1077,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1092,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1106,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1115,10 +1112,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1141,15 +1138,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -1165,26 +1162,26 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D8" s="7"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1200,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
@@ -1225,10 +1222,10 @@
     </row>
     <row r="11" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
@@ -1244,15 +1241,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="6" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -1268,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.5" customHeight="1">
@@ -1291,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.5" customHeight="1">
@@ -1308,7 +1305,7 @@
         <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5" customHeight="1">
@@ -1316,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1331,12 +1328,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1">
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1351,12 +1348,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1">
@@ -1394,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1">
@@ -1411,12 +1408,12 @@
         <v>26</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1">
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1437,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1452,12 +1449,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1">
       <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1480,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1522,10 +1519,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -1533,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -1549,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -1557,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1573,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" customHeight="1">
@@ -1581,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -1597,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -1611,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -1620,10 +1617,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1647,15 +1644,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -1671,26 +1668,26 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D8" s="7"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1706,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
@@ -1731,10 +1728,10 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
@@ -1750,15 +1747,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -1774,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32.25" customHeight="1">
@@ -1782,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
@@ -1798,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="47.25" customHeight="1">
@@ -1812,55 +1809,55 @@
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="56.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="50.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="6">
         <v>1</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>168</v>
+      <c r="B17" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -1876,12 +1873,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30.75" customHeight="1">
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
@@ -1897,12 +1894,12 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1">
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
@@ -1918,12 +1915,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1">
       <c r="B20" s="9" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
@@ -1939,245 +1936,251 @@
         <v>1</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30.75" customHeight="1">
-      <c r="B21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="38.25" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="B22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="46.5" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="46.5" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="41.25" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="41.25" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="47.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="47.25" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="25.5" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45">
       <c r="A27" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25.5" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>60</v>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>62</v>
+      <c r="D29" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45">
       <c r="A30" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="45">
       <c r="A31" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45">
       <c r="A32" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="25.5" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>69</v>
+        <v>8</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="B34" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="7"/>
       <c r="E34" s="6">
         <v>1</v>
       </c>
@@ -2185,26 +2188,6 @@
         <v>1</v>
       </c>
       <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="B35" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2218,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2259,10 +2242,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
@@ -2270,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2286,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1">
@@ -2294,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2310,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
@@ -2318,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -2334,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1">
@@ -2348,7 +2331,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2357,10 +2340,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -2384,15 +2367,15 @@
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -2408,26 +2391,26 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D8" s="7"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -2443,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
@@ -2468,10 +2451,10 @@
     </row>
     <row r="11" spans="1:10" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
@@ -2487,15 +2470,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -2511,18 +2494,18 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45">
       <c r="A13" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -2534,55 +2517,55 @@
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45">
       <c r="A14" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>13</v>
@@ -2594,72 +2577,72 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45">
       <c r="A17" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -2674,12 +2657,12 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30.75" customHeight="1">
       <c r="B21" s="9" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
@@ -2695,12 +2678,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="28.5" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -2716,12 +2699,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30.75" customHeight="1">
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
@@ -2737,12 +2720,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30.75" customHeight="1">
       <c r="B24" s="9" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
@@ -2758,24 +2741,31 @@
         <v>1</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="38.25" customHeight="1">
-      <c r="B25" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
@@ -2792,12 +2782,12 @@
         <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -2814,27 +2804,27 @@
     </row>
     <row r="28" spans="1:10" ht="45">
       <c r="B28" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -2849,12 +2839,12 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B30" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
@@ -2917,10 +2907,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1">
@@ -2928,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2944,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
@@ -2952,7 +2942,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -2968,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2976,7 +2966,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2992,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45">
@@ -3006,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -3015,10 +3005,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3042,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
@@ -3066,15 +3056,15 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -3090,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3114,15 +3104,15 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -3138,15 +3128,15 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -3162,15 +3152,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -3186,15 +3176,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -3210,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
